--- a/data/excel_tables/9.5_false_in_kind_donations_info.xlsx
+++ b/data/excel_tables/9.5_false_in_kind_donations_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>donation_type</t>
   </si>
@@ -55,9 +55,6 @@
     <t>returning_sum</t>
   </si>
   <si>
-    <t>returning_to_budget</t>
-  </si>
-  <si>
     <t>officeType</t>
   </si>
   <si>
@@ -86,6 +83,51 @@
   </si>
   <si>
     <t>report_id</t>
+  </si>
+  <si>
+    <t>відшкодування витрат по авансовому звіту</t>
+  </si>
+  <si>
+    <t>29.04.2024</t>
+  </si>
+  <si>
+    <t>БАРДАЛА ВАЛЕНТИНА ВІКТОРІВНА</t>
+  </si>
+  <si>
+    <t>Фізична особа</t>
+  </si>
+  <si>
+    <t>08.05.2024</t>
+  </si>
+  <si>
+    <t>Бардала Валентина Вікторівна</t>
+  </si>
+  <si>
+    <t>Центральний офіс</t>
+  </si>
+  <si>
+    <t>Основний</t>
+  </si>
+  <si>
+    <t>2 квартал</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>ПОЛІТИЧНА ПАРТІЯ «ЗА КОНКРЕТНІ СПРАВИ»</t>
+  </si>
+  <si>
+    <t>39933113</t>
+  </si>
+  <si>
+    <t>Україна</t>
+  </si>
+  <si>
+    <t>ЗА КОНКРЕТНІ СПРАВИ</t>
+  </si>
+  <si>
+    <t>05349d50-4fd4-11ef-9f9f-af297e478ff7</t>
   </si>
 </sst>
 </file>
@@ -443,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X1"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,8 +561,67 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
         <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2">
+        <v>150</v>
+      </c>
+      <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_tables/9.5_false_in_kind_donations_info.xlsx
+++ b/data/excel_tables/9.5_false_in_kind_donations_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>donation_type</t>
   </si>
@@ -55,6 +55,9 @@
     <t>returning_sum</t>
   </si>
   <si>
+    <t>returning_to_budget</t>
+  </si>
+  <si>
     <t>officeType</t>
   </si>
   <si>
@@ -83,51 +86,6 @@
   </si>
   <si>
     <t>report_id</t>
-  </si>
-  <si>
-    <t>відшкодування витрат по авансовому звіту</t>
-  </si>
-  <si>
-    <t>29.04.2024</t>
-  </si>
-  <si>
-    <t>БАРДАЛА ВАЛЕНТИНА ВІКТОРІВНА</t>
-  </si>
-  <si>
-    <t>Фізична особа</t>
-  </si>
-  <si>
-    <t>08.05.2024</t>
-  </si>
-  <si>
-    <t>Бардала Валентина Вікторівна</t>
-  </si>
-  <si>
-    <t>Центральний офіс</t>
-  </si>
-  <si>
-    <t>Основний</t>
-  </si>
-  <si>
-    <t>2 квартал</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>ПОЛІТИЧНА ПАРТІЯ «ЗА КОНКРЕТНІ СПРАВИ»</t>
-  </si>
-  <si>
-    <t>39933113</t>
-  </si>
-  <si>
-    <t>Україна</t>
-  </si>
-  <si>
-    <t>ЗА КОНКРЕТНІ СПРАВИ</t>
-  </si>
-  <si>
-    <t>05349d50-4fd4-11ef-9f9f-af297e478ff7</t>
   </si>
 </sst>
 </file>
@@ -485,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,67 +519,8 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2">
-        <v>150</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2">
-        <v>150</v>
-      </c>
-      <c r="N2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
